--- a/biology/Zoologie/Alophosoma/Alophosoma.xlsx
+++ b/biology/Zoologie/Alophosoma/Alophosoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alophosoma est un genre de lépidoptères (papillons) de la famille des Erebidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Alophosoma a été créé en 1929 par le pédiatre et entomologiste australien Alfred Jefferis Turner (1861-1947)[1] avec comme espèce type Alophosoma syngenes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Alophosoma a été créé en 1929 par le pédiatre et entomologiste australien Alfred Jefferis Turner (1861-1947) avec comme espèce type Alophosoma syngenes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FUNET Tree of Life  (12 décembre 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FUNET Tree of Life  (12 décembre 2019) :
 Alophosoma emmelopis (Turner, 1929)
 Alophosoma syngenes Turner, 1929
 Alophosoma hypoxantha (Lower, 1902)</t>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Alophosoma, dérive du grec ancien ἀ-, a-, « privatif », λόφος, lophos, « crête », et σῶμα, sōma, « corps », fait référence à l'absence de crête sur l'abdomen[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Alophosoma, dérive du grec ancien ἀ-, a-, « privatif », λόφος, lophos, « crête », et σῶμα, sōma, « corps », fait référence à l'absence de crête sur l'abdomen. 
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) A. Jefferis Turner, « New Australian Lepidoptera », Transactions and Proceedings of the Royal Society of South Australia, vol. 53,‎ 12 septembre 1929, p. 297-308 (ISSN 0372-0888, lire en ligne)</t>
         </is>
